--- a/medicine/Psychotrope/Lactobacillus_delbrueckii_subsp._bulgaricus/Lactobacillus_delbrueckii_subsp._bulgaricus.xlsx
+++ b/medicine/Psychotrope/Lactobacillus_delbrueckii_subsp._bulgaricus/Lactobacillus_delbrueckii_subsp._bulgaricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactobacillus delbrueckii subsp. bulgaricus est un micro-organisme du genre Lactobacillus. C'est un bacille gram positif.
-Sa découverte est due à l'étudiant bulgare en médecine Stamen Grigorov en 1905[1], et nommé en 1919, Thermobacterium bulgaricum, par le Danois Orla Sigurd Jensen (da) (1870-1949).
+Sa découverte est due à l'étudiant bulgare en médecine Stamen Grigorov en 1905, et nommé en 1919, Thermobacterium bulgaricum, par le Danois Orla Sigurd Jensen (da) (1870-1949).
 De 1971 à 1983, son nom était Lactobacillus bulgaricus, renommé par Morrison Rogosa et le Danois Poul Arne Hansen (1902-1972).
 Il est connu pour son utilisation dans la fabrication des yaourts et laits fermentés en association avec Streptococcus thermophilus, ainsi que dans le brassage de certaines bières allemandes. Dans le cas de la production de laits fermentés il est responsable de l'acidification du milieu et joue ainsi un rôle dans la texture et l’aromatisation (acétaldéhyde). Enfin, il a un rôle nutritionnel fort dans la composition du yaourt.
 Cette bactérie lactique a un métabolisme strictement homofermentaire, c'est-à-dire qu'elle transforme le glucose en lactate (acide lactique) selon un rendement de 100 % (1 glucose → 1 lactate + 2 ATP).
@@ -515,7 +527,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>gram +
 anaérobie
@@ -548,7 +562,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Grigoroff, Stamen Étude sur un lait fermenté comestible. Le “Kissélo mléko” de Bulgarie. Revue Médicale de la Suisse Romande. Genéve. Georg &amp; G., Libraires-Éditeurs. Librairie de L’Université. 1905
